--- a/biology/Botanique/Warren_Herbert_Wagner/Warren_Herbert_Wagner.xlsx
+++ b/biology/Botanique/Warren_Herbert_Wagner/Warren_Herbert_Wagner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Warren Herbert Wagner est un botaniste américain, né le 29 août 1920 à Washington et mort le 8 janvier 2000.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de Warren Herbert Wagner et d’Harriet née Claflin. Après avoir servi dans la Navy durant Seconde Guerre mondiale, il obtient son Bachelor of Arts à l’université de Pennsylvanie en 1942, son Ph. D. à l’université de Californie de Berkeley en 1950. Il fait ses recherches post-doctorales à Harvard.
 Il se marie le 16 juillet 1948 avec Florence Signaigo Wagner (1919-) dont il aura deux enfants. Il est maître-assistant en 1951 à Harvard, il s’y consacre principalement aux fougères mais aussi aux chênes, aux papillons et à la minéralogie. Il part ensuite à l’université Ann Arbor du Michigan, à partir de 1962, il enseigne la botanique et est conservateur des ptériodophytes à partir de 1961.
@@ -547,7 +561,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Notice nécrologique de William R. Anderson parue dans Plant Science Bulletin, 46 (1) - Spring 2000 (en anglais)
 Allen G. Debus (dir.) (1968). World Who’s Who in Science. A Biographical Dictionary of Notable Scientists from Antiquity to the Present. Marquis-Who’s Who (Chicago) : xvi + 1855 p.</t>
